--- a/Lab_3/Segway_files/Outputs/output1.xlsx
+++ b/Lab_3/Segway_files/Outputs/output1.xlsx
@@ -409,28 +409,28 @@
     </row>
     <row r="2" spans="2:10">
       <c r="B2">
-        <v>686.6681829197598</v>
+        <v>9846.855704620202</v>
       </c>
       <c r="C2">
-        <v>318.3121879705876</v>
+        <v>9943.972011431841</v>
       </c>
       <c r="D2">
-        <v>0.006744034758416013</v>
+        <v>0.001570365257355042</v>
       </c>
       <c r="E2">
-        <v>-0.9836524540479027</v>
+        <v>-0.01727824781537188</v>
       </c>
       <c r="F2">
-        <v>0.01180011363824652</v>
+        <v>-1.045365344686178</v>
       </c>
       <c r="G2">
-        <v>317</v>
+        <v>10000.0509</v>
       </c>
       <c r="H2">
-        <v>299.921519</v>
+        <v>9926.4</v>
       </c>
       <c r="I2">
-        <v>-0.001058652</v>
+        <v>-1.57006</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -438,28 +438,28 @@
     </row>
     <row r="3" spans="2:10">
       <c r="B3">
-        <v>635.6157862133638</v>
+        <v>9779.151676892956</v>
       </c>
       <c r="C3">
-        <v>285.2330607048771</v>
+        <v>9922.770385953781</v>
       </c>
       <c r="D3">
-        <v>-0.003340559338141268</v>
+        <v>0.002613545338025167</v>
       </c>
       <c r="E3">
-        <v>-1.027196310213129</v>
+        <v>-0.02875464840487438</v>
       </c>
       <c r="F3">
-        <v>-0.008225205136358415</v>
+        <v>-1.009537892621936</v>
       </c>
       <c r="G3">
-        <v>319.4999985990701</v>
+        <v>10000.06938180088</v>
       </c>
       <c r="H3">
-        <v>299.9188723704943</v>
+        <v>9901.300006804322</v>
       </c>
       <c r="I3">
-        <v>-0.001058652</v>
+        <v>-1.57006</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -467,28 +467,28 @@
     </row>
     <row r="4" spans="2:10">
       <c r="B4">
-        <v>665.5218903214609</v>
+        <v>9982.308242008487</v>
       </c>
       <c r="C4">
-        <v>295.9182646728933</v>
+        <v>9499.530645676155</v>
       </c>
       <c r="D4">
-        <v>0.00422893338898644</v>
+        <v>0.001333547056854238</v>
       </c>
       <c r="E4">
-        <v>-1.05379446810913</v>
+        <v>-0.007805652418857139</v>
       </c>
       <c r="F4">
-        <v>0.01952308616682229</v>
+        <v>-1.029674595756267</v>
       </c>
       <c r="G4">
-        <v>324.4999957972102</v>
+        <v>10000.10634540265</v>
       </c>
       <c r="H4">
-        <v>299.913579111483</v>
+        <v>9851.100020412969</v>
       </c>
       <c r="I4">
-        <v>-0.001058652</v>
+        <v>-1.57006</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -496,28 +496,28 @@
     </row>
     <row r="5" spans="2:10">
       <c r="B5">
-        <v>709.5899451210494</v>
+        <v>9742.741783520847</v>
       </c>
       <c r="C5">
-        <v>287.5835948371349</v>
+        <v>9759.289609430831</v>
       </c>
       <c r="D5">
-        <v>0.009181784171414383</v>
+        <v>-0.0008289291695859301</v>
       </c>
       <c r="E5">
-        <v>-1.005252978188615</v>
+        <v>-0.02211883207533453</v>
       </c>
       <c r="F5">
-        <v>0.008724582492802358</v>
+        <v>-0.9873028669728153</v>
       </c>
       <c r="G5">
-        <v>331.9999915944204</v>
+        <v>10000.16179080529</v>
       </c>
       <c r="H5">
-        <v>299.9056392229662</v>
+        <v>9775.800040825938</v>
       </c>
       <c r="I5">
-        <v>-0.001058652</v>
+        <v>-1.57006</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -525,28 +525,28 @@
     </row>
     <row r="6" spans="2:10">
       <c r="B6">
-        <v>674.6446622400548</v>
+        <v>9399.541222938058</v>
       </c>
       <c r="C6">
-        <v>271.3783454866569</v>
+        <v>9871.60198478629</v>
       </c>
       <c r="D6">
-        <v>-0.001190120430590574</v>
+        <v>0.004904078976826089</v>
       </c>
       <c r="E6">
-        <v>-0.9892891736727617</v>
+        <v>-0.02126401197357233</v>
       </c>
       <c r="F6">
-        <v>0.00202651787111818</v>
+        <v>-0.9970596732035598</v>
       </c>
       <c r="G6">
-        <v>341.9999859907006</v>
+        <v>10000.23571800882</v>
       </c>
       <c r="H6">
-        <v>299.8950527049436</v>
+        <v>9675.400068043229</v>
       </c>
       <c r="I6">
-        <v>-0.001058652</v>
+        <v>-1.57006</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -554,28 +554,28 @@
     </row>
     <row r="7" spans="2:10">
       <c r="B7">
-        <v>657.1289117300512</v>
+        <v>9620.943780527805</v>
       </c>
       <c r="C7">
-        <v>305.6383647179602</v>
+        <v>10006.58170621997</v>
       </c>
       <c r="D7">
-        <v>0.007110021449544614</v>
+        <v>0.002577553561419718</v>
       </c>
       <c r="E7">
-        <v>-1.001747909683634</v>
+        <v>-0.02541745676639399</v>
       </c>
       <c r="F7">
-        <v>-0.02208109299632596</v>
+        <v>-1.017996032416947</v>
       </c>
       <c r="G7">
-        <v>354.4999789860509</v>
+        <v>10000.32812701323</v>
       </c>
       <c r="H7">
-        <v>299.8818195574154</v>
+        <v>9549.900102064843</v>
       </c>
       <c r="I7">
-        <v>-0.001058652</v>
+        <v>-1.57006</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -583,28 +583,28 @@
     </row>
     <row r="8" spans="2:10">
       <c r="B8">
-        <v>648.0757970700595</v>
+        <v>9302.52908623136</v>
       </c>
       <c r="C8">
-        <v>289.5422526245501</v>
+        <v>10026.31855867205</v>
       </c>
       <c r="D8">
-        <v>0.002205246294067519</v>
+        <v>-0.007920703190534336</v>
       </c>
       <c r="E8">
-        <v>-1.009953001288578</v>
+        <v>-0.01875345501685044</v>
       </c>
       <c r="F8">
-        <v>0.02304039345242121</v>
+        <v>-1.004403355050846</v>
       </c>
       <c r="G8">
-        <v>366.9999719814012</v>
+        <v>10000.42053601764</v>
       </c>
       <c r="H8">
-        <v>299.8685864098873</v>
+        <v>9424.400136086457</v>
       </c>
       <c r="I8">
-        <v>-0.001058652</v>
+        <v>-1.57006</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -612,28 +612,28 @@
     </row>
     <row r="9" spans="2:10">
       <c r="B9">
-        <v>649.3539882083362</v>
+        <v>9523.070664628332</v>
       </c>
       <c r="C9">
-        <v>298.4497956518145</v>
+        <v>10199.88047593326</v>
       </c>
       <c r="D9">
-        <v>0.002347246930049254</v>
+        <v>-0.004854999720061074</v>
       </c>
       <c r="E9">
-        <v>-0.9918144539095683</v>
+        <v>-0.007869510233724392</v>
       </c>
       <c r="F9">
-        <v>-0.01996651057904747</v>
+        <v>-1.028328131049683</v>
       </c>
       <c r="G9">
-        <v>376.9999663776814</v>
+        <v>10000.49446322117</v>
       </c>
       <c r="H9">
-        <v>299.8579998918647</v>
+        <v>9324.000163303748</v>
       </c>
       <c r="I9">
-        <v>-0.001058652</v>
+        <v>-1.57006</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -641,28 +641,28 @@
     </row>
     <row r="10" spans="2:10">
       <c r="B10">
-        <v>611.3582519304723</v>
+        <v>9334.542612488201</v>
       </c>
       <c r="C10">
-        <v>272.6827786748298</v>
+        <v>9942.428818312101</v>
       </c>
       <c r="D10">
-        <v>-0.001637768871146132</v>
+        <v>0.008708923736452115</v>
       </c>
       <c r="E10">
-        <v>-0.9838690675873913</v>
+        <v>-0.01689671541922974</v>
       </c>
       <c r="F10">
-        <v>-0.007087885254519876</v>
+        <v>-1.018754528156386</v>
       </c>
       <c r="G10">
-        <v>384.4999621748916</v>
+        <v>10000.54990862381</v>
       </c>
       <c r="H10">
-        <v>299.8500600033478</v>
+        <v>9248.700183716717</v>
       </c>
       <c r="I10">
-        <v>-0.001058652</v>
+        <v>-1.57006</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -670,28 +670,28 @@
     </row>
     <row r="11" spans="2:10">
       <c r="B11">
-        <v>596.5969252672827</v>
+        <v>9094.461764764126</v>
       </c>
       <c r="C11">
-        <v>264.5345310593739</v>
+        <v>10421.681379388</v>
       </c>
       <c r="D11">
-        <v>0.002059878213001697</v>
+        <v>-0.002951549975170218</v>
       </c>
       <c r="E11">
-        <v>-0.9471567855386502</v>
+        <v>0.00122753941351096</v>
       </c>
       <c r="F11">
-        <v>0.03149554088154201</v>
+        <v>-1.027498899950456</v>
       </c>
       <c r="G11">
-        <v>389.4999593730317</v>
+        <v>10000.58687222558</v>
       </c>
       <c r="H11">
-        <v>299.8447667443365</v>
+        <v>9198.500197325364</v>
       </c>
       <c r="I11">
-        <v>-0.001058652</v>
+        <v>-1.57006</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -699,28 +699,28 @@
     </row>
     <row r="12" spans="2:10">
       <c r="B12">
-        <v>601.8398387827665</v>
+        <v>9389.145954489877</v>
       </c>
       <c r="C12">
-        <v>319.9510961383214</v>
+        <v>9986.645660040143</v>
       </c>
       <c r="D12">
-        <v>0.01006167415962562</v>
+        <v>-0.003303964576066429</v>
       </c>
       <c r="E12">
-        <v>-1.018387030536018</v>
+        <v>-0.01094746769060668</v>
       </c>
       <c r="F12">
-        <v>-0.03948561174524345</v>
+        <v>-1.022908622655127</v>
       </c>
       <c r="G12">
-        <v>391.9999579721018</v>
+        <v>10000.60535402646</v>
       </c>
       <c r="H12">
-        <v>299.8421201148309</v>
+        <v>9173.400204129686</v>
       </c>
       <c r="I12">
-        <v>-0.001058652</v>
+        <v>-1.57006</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -728,28 +728,28 @@
     </row>
     <row r="13" spans="2:10">
       <c r="B13">
-        <v>577.8167193970005</v>
+        <v>9042.184383559885</v>
       </c>
       <c r="C13">
-        <v>299.856620440877</v>
+        <v>9964.820609934293</v>
       </c>
       <c r="D13">
-        <v>0.0009092581165978085</v>
+        <v>-0.005286660475891692</v>
       </c>
       <c r="E13">
-        <v>-1.012899081956562</v>
+        <v>-0.02432661348640303</v>
       </c>
       <c r="F13">
-        <v>0.01021562309720616</v>
+        <v>-1.006035840412256</v>
       </c>
       <c r="G13">
-        <v>391.9999579721018</v>
+        <v>10000.60535402646</v>
       </c>
       <c r="H13">
-        <v>299.8421201148309</v>
+        <v>9173.400204129686</v>
       </c>
       <c r="I13">
-        <v>-0.001058652</v>
+        <v>-1.57006</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -757,28 +757,28 @@
     </row>
     <row r="14" spans="2:10">
       <c r="B14">
-        <v>618.9137977530028</v>
+        <v>9239.089145970003</v>
       </c>
       <c r="C14">
-        <v>280.8004544231943</v>
+        <v>10006.12196693662</v>
       </c>
       <c r="D14">
-        <v>-0.009378199026416581</v>
+        <v>0.0002824217033145253</v>
       </c>
       <c r="E14">
-        <v>-0.9754799609110144</v>
+        <v>0.0006792082051808537</v>
       </c>
       <c r="F14">
-        <v>0.001903094916461579</v>
+        <v>-0.9697735754142726</v>
       </c>
       <c r="G14">
-        <v>391.9999579721018</v>
+        <v>10000.60535402646</v>
       </c>
       <c r="H14">
-        <v>299.8421201148309</v>
+        <v>9173.400204129686</v>
       </c>
       <c r="I14">
-        <v>-0.001058652</v>
+        <v>-1.57006</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -786,28 +786,28 @@
     </row>
     <row r="15" spans="2:10">
       <c r="B15">
-        <v>554.3414949079881</v>
+        <v>9221.665392786552</v>
       </c>
       <c r="C15">
-        <v>285.6603511184729</v>
+        <v>9782.604692684134</v>
       </c>
       <c r="D15">
-        <v>0.005457449843265762</v>
+        <v>-0.004957346897322059</v>
       </c>
       <c r="E15">
-        <v>-0.9923558993866592</v>
+        <v>-0.02988030868846608</v>
       </c>
       <c r="F15">
-        <v>-0.0006598766901036576</v>
+        <v>-1.013507384026217</v>
       </c>
       <c r="G15">
-        <v>404.4999509674521</v>
+        <v>10000.69776303087</v>
       </c>
       <c r="H15">
-        <v>299.8288869673027</v>
+        <v>9047.9002381513</v>
       </c>
       <c r="I15">
-        <v>-0.001058652</v>
+        <v>-1.57006</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -815,28 +815,28 @@
     </row>
     <row r="16" spans="2:10">
       <c r="B16">
-        <v>557.6712432396456</v>
+        <v>8589.346696286477</v>
       </c>
       <c r="C16">
-        <v>313.8271528754718</v>
+        <v>10089.17020030962</v>
       </c>
       <c r="D16">
-        <v>0.006002419850910445</v>
+        <v>0.0005160021341385256</v>
       </c>
       <c r="E16">
-        <v>-0.9907555406545328</v>
+        <v>0.0127064169600785</v>
       </c>
       <c r="F16">
-        <v>0.01162057138836814</v>
+        <v>-1.009957978200627</v>
       </c>
       <c r="G16">
-        <v>429.4999369581527</v>
+        <v>10000.88258103969</v>
       </c>
       <c r="H16">
-        <v>299.8024206722463</v>
+        <v>8796.90030619453</v>
       </c>
       <c r="I16">
-        <v>-0.001058652</v>
+        <v>-1.57006</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -844,28 +844,28 @@
     </row>
     <row r="17" spans="2:10">
       <c r="B17">
-        <v>513.7407217239647</v>
+        <v>8844.738564512698</v>
       </c>
       <c r="C17">
-        <v>300.6951122101564</v>
+        <v>10060.47151675054</v>
       </c>
       <c r="D17">
-        <v>-0.0001253921980675491</v>
+        <v>0.004247965253197468</v>
       </c>
       <c r="E17">
-        <v>-0.9743210265019684</v>
+        <v>0.003599160770995227</v>
       </c>
       <c r="F17">
-        <v>-0.006401910990465136</v>
+        <v>-0.9850391331366546</v>
       </c>
       <c r="G17">
-        <v>466.9999159442036</v>
+        <v>10001.15980805292</v>
       </c>
       <c r="H17">
-        <v>299.7627212296618</v>
+        <v>8420.400408259373</v>
       </c>
       <c r="I17">
-        <v>-0.001058652</v>
+        <v>-1.57006</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -873,28 +873,28 @@
     </row>
     <row r="18" spans="2:10">
       <c r="B18">
-        <v>488.956585816602</v>
+        <v>7971.33551864473</v>
       </c>
       <c r="C18">
-        <v>300.1604601437678</v>
+        <v>10023.29513162255</v>
       </c>
       <c r="D18">
-        <v>-0.005825564183928418</v>
+        <v>0.0001571544604943278</v>
       </c>
       <c r="E18">
-        <v>-0.9782881729102877</v>
+        <v>-0.02216231348418802</v>
       </c>
       <c r="F18">
-        <v>-0.004392202992398244</v>
+        <v>-0.994533872484801</v>
       </c>
       <c r="G18">
-        <v>516.9998879256048</v>
+        <v>10001.52944407055</v>
       </c>
       <c r="H18">
-        <v>299.7097886395492</v>
+        <v>7918.400544345831</v>
       </c>
       <c r="I18">
-        <v>-0.001058652</v>
+        <v>-1.57006</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -902,28 +902,28 @@
     </row>
     <row r="19" spans="2:10">
       <c r="B19">
-        <v>419.4530046690033</v>
+        <v>7437.507849613894</v>
       </c>
       <c r="C19">
-        <v>308.2324318213758</v>
+        <v>10114.50003140354</v>
       </c>
       <c r="D19">
-        <v>0.002971025451891131</v>
+        <v>0.005529718803793875</v>
       </c>
       <c r="E19">
-        <v>-1.00917707377017</v>
+        <v>-0.014154880701399</v>
       </c>
       <c r="F19">
-        <v>-0.03248597850372097</v>
+        <v>-1.047208126082654</v>
       </c>
       <c r="G19">
-        <v>579.4998529023562</v>
+        <v>10001.9914890926</v>
       </c>
       <c r="H19">
-        <v>299.6436229019083</v>
+        <v>7290.900714453904</v>
       </c>
       <c r="I19">
-        <v>-0.001058652</v>
+        <v>-1.57006</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -931,28 +931,28 @@
     </row>
     <row r="20" spans="2:10">
       <c r="B20">
-        <v>360.8846981294407</v>
+        <v>6578.382497900247</v>
       </c>
       <c r="C20">
-        <v>263.1257166529214</v>
+        <v>9716.928134967437</v>
       </c>
       <c r="D20">
-        <v>-0.001966418081039474</v>
+        <v>-0.000218833523824542</v>
       </c>
       <c r="E20">
-        <v>-0.9839949387766826</v>
+        <v>-0.02057149099105878</v>
       </c>
       <c r="F20">
-        <v>-0.01492157502180803</v>
+        <v>-1.035590015876565</v>
       </c>
       <c r="G20">
-        <v>641.9998178791077</v>
+        <v>10002.45353411465</v>
       </c>
       <c r="H20">
-        <v>299.5774571642675</v>
+        <v>6663.400884561976</v>
       </c>
       <c r="I20">
-        <v>-0.001058652</v>
+        <v>-1.57006</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -960,28 +960,28 @@
     </row>
     <row r="21" spans="2:10">
       <c r="B21">
-        <v>324.0077343014541</v>
+        <v>6356.317469488909</v>
       </c>
       <c r="C21">
-        <v>287.1433616362281</v>
+        <v>10269.2353275908</v>
       </c>
       <c r="D21">
-        <v>-0.01122231204142254</v>
+        <v>-0.005499302996600625</v>
       </c>
       <c r="E21">
-        <v>-0.9851879819201126</v>
+        <v>-0.019526385373451</v>
       </c>
       <c r="F21">
-        <v>0.00644321050624976</v>
+        <v>-0.9731707930429534</v>
       </c>
       <c r="G21">
-        <v>691.9997898605088</v>
+        <v>10002.82317013228</v>
       </c>
       <c r="H21">
-        <v>299.5245245741548</v>
+        <v>6161.401020648434</v>
       </c>
       <c r="I21">
-        <v>-0.001058652</v>
+        <v>-1.57006</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -989,28 +989,28 @@
     </row>
     <row r="22" spans="2:10">
       <c r="B22">
-        <v>266.8626609320194</v>
+        <v>5595.991052680025</v>
       </c>
       <c r="C22">
-        <v>350.3942237223827</v>
+        <v>9874.685497897812</v>
       </c>
       <c r="D22">
-        <v>-0.001016938563275218</v>
+        <v>-0.001081651872794157</v>
       </c>
       <c r="E22">
-        <v>-1.030457789397248</v>
+        <v>-0.01752764598151278</v>
       </c>
       <c r="F22">
-        <v>0.007560330633368226</v>
+        <v>-0.9813626906516717</v>
       </c>
       <c r="G22">
-        <v>729.4997688465597</v>
+        <v>10003.10039714551</v>
       </c>
       <c r="H22">
-        <v>299.4848251315703</v>
+        <v>5784.901122713278</v>
       </c>
       <c r="I22">
-        <v>-0.001058652</v>
+        <v>-1.57006</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1018,28 +1018,28 @@
     </row>
     <row r="23" spans="2:10">
       <c r="B23">
-        <v>270.2456396629219</v>
+        <v>5898.666297885381</v>
       </c>
       <c r="C23">
-        <v>312.0934148892019</v>
+        <v>9931.913824378942</v>
       </c>
       <c r="D23">
-        <v>-0.0008307662413095122</v>
+        <v>0.0005978368582466943</v>
       </c>
       <c r="E23">
-        <v>-1.031736520825296</v>
+        <v>-0.04167156731930043</v>
       </c>
       <c r="F23">
-        <v>-0.003391238563423461</v>
+        <v>-0.9627934569464751</v>
       </c>
       <c r="G23">
-        <v>754.4997548372603</v>
+        <v>10003.28521515433</v>
       </c>
       <c r="H23">
-        <v>299.4583588365139</v>
+        <v>5533.901190756507</v>
       </c>
       <c r="I23">
-        <v>-0.001058652</v>
+        <v>-1.57006</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1047,28 +1047,28 @@
     </row>
     <row r="24" spans="2:10">
       <c r="B24">
-        <v>256.9369712899582</v>
+        <v>5502.646580280668</v>
       </c>
       <c r="C24">
-        <v>273.9759189545878</v>
+        <v>9721.331416634508</v>
       </c>
       <c r="D24">
-        <v>0.0006282438945857073</v>
+        <v>-0.001045369033044726</v>
       </c>
       <c r="E24">
-        <v>-1.005713594742099</v>
+        <v>0.003274404937726756</v>
       </c>
       <c r="F24">
-        <v>-0.007884158094027463</v>
+        <v>-1.00745877202748</v>
       </c>
       <c r="G24">
-        <v>766.9997478326106</v>
+        <v>10003.37762415874</v>
       </c>
       <c r="H24">
-        <v>299.4451256889857</v>
+        <v>5408.401224778122</v>
       </c>
       <c r="I24">
-        <v>-0.001058652</v>
+        <v>-1.57006</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1076,28 +1076,28 @@
     </row>
     <row r="25" spans="2:10">
       <c r="B25">
-        <v>238.9836455715636</v>
+        <v>5436.86050118995</v>
       </c>
       <c r="C25">
-        <v>296.7149050301484</v>
+        <v>9878.400044741526</v>
       </c>
       <c r="D25">
-        <v>0.003457279724654898</v>
+        <v>0.01317420834593607</v>
       </c>
       <c r="E25">
-        <v>-0.9978728379251793</v>
+        <v>-0.02898379531840551</v>
       </c>
       <c r="F25">
-        <v>0.009026717326753295</v>
+        <v>-1.017800741935085</v>
       </c>
       <c r="G25">
-        <v>766.9997478326106</v>
+        <v>10003.37762415874</v>
       </c>
       <c r="H25">
-        <v>299.4451256889857</v>
+        <v>5408.401224778122</v>
       </c>
       <c r="I25">
-        <v>-0.001058652</v>
+        <v>-1.57006</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1105,28 +1105,28 @@
     </row>
     <row r="26" spans="2:10">
       <c r="B26">
-        <v>211.3696814174898</v>
+        <v>5143.639023321933</v>
       </c>
       <c r="C26">
-        <v>319.0659954436607</v>
+        <v>10014.97278527665</v>
       </c>
       <c r="D26">
-        <v>-0.001971794204829389</v>
+        <v>-0.001698260245495877</v>
       </c>
       <c r="E26">
-        <v>-0.985488848607296</v>
+        <v>0.0447199110646609</v>
       </c>
       <c r="F26">
-        <v>-0.003957254862643159</v>
+        <v>-0.9916412429470051</v>
       </c>
       <c r="G26">
-        <v>766.9997478326106</v>
+        <v>10003.37762415874</v>
       </c>
       <c r="H26">
-        <v>299.4451256889857</v>
+        <v>5408.401224778122</v>
       </c>
       <c r="I26">
-        <v>-0.001058652</v>
+        <v>-1.57006</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1134,173 +1134,173 @@
     </row>
     <row r="27" spans="2:10">
       <c r="B27">
-        <v>234.3458090261763</v>
+        <v>6031.5367244029</v>
       </c>
       <c r="C27">
-        <v>294.6938159565181</v>
+        <v>11149.41730342858</v>
       </c>
       <c r="D27">
-        <v>1.111982326129222</v>
+        <v>1.900073404339615</v>
       </c>
       <c r="E27">
-        <v>-0.9874376677067095</v>
+        <v>-0.4583653043470163</v>
       </c>
       <c r="F27">
-        <v>0.2736634222564842</v>
+        <v>-0.8839228151073574</v>
       </c>
       <c r="G27">
-        <v>766.9997478326106</v>
+        <v>10003.37762415874</v>
       </c>
       <c r="H27">
-        <v>299.4451256889857</v>
+        <v>5408.401224778122</v>
       </c>
       <c r="I27">
-        <v>0.2767191257777778</v>
+        <v>-1.096475094339623</v>
       </c>
       <c r="J27">
-        <v>1.111111111111111</v>
+        <v>1.894339622641509</v>
       </c>
     </row>
     <row r="28" spans="2:10">
       <c r="B28">
-        <v>340.7693530414305</v>
+        <v>9927.569212637842</v>
       </c>
       <c r="C28">
-        <v>296.7252936337447</v>
+        <v>5764.308625882294</v>
       </c>
       <c r="D28">
-        <v>2.215177081623799</v>
+        <v>3.796248499203373</v>
       </c>
       <c r="E28">
-        <v>-0.6994698294926375</v>
+        <v>-0.9647624747623718</v>
       </c>
       <c r="F28">
-        <v>0.7332029145911382</v>
+        <v>-0.1626846864362841</v>
       </c>
       <c r="G28">
-        <v>766.9997478326106</v>
+        <v>10003.37762415874</v>
       </c>
       <c r="H28">
-        <v>299.4451256889857</v>
+        <v>5408.401224778122</v>
       </c>
       <c r="I28">
-        <v>0.8322746813333334</v>
+        <v>-0.1493052830188679</v>
       </c>
       <c r="J28">
-        <v>2.222222222222222</v>
+        <v>3.788679245283019</v>
       </c>
     </row>
     <row r="29" spans="2:10">
       <c r="B29">
-        <v>724.2682811452523</v>
+        <v>13878.66280873856</v>
       </c>
       <c r="C29">
-        <v>229.5574908872017</v>
+        <v>7881.956833586567</v>
       </c>
       <c r="D29">
-        <v>2.221973436532643</v>
+        <v>3.791655589211361</v>
       </c>
       <c r="E29">
-        <v>-0.1663961372054596</v>
+        <v>-0.7135285761094096</v>
       </c>
       <c r="F29">
-        <v>1.000194393405123</v>
+        <v>0.7257923712025709</v>
       </c>
       <c r="G29">
-        <v>766.9997478326106</v>
+        <v>10003.37762415874</v>
       </c>
       <c r="H29">
-        <v>299.4451256889857</v>
+        <v>5408.401224778122</v>
       </c>
       <c r="I29">
-        <v>1.387830236888889</v>
+        <v>0.7978645283018868</v>
       </c>
       <c r="J29">
-        <v>2.222222222222222</v>
+        <v>3.788679245283019</v>
       </c>
     </row>
     <row r="30" spans="2:10">
       <c r="B30">
-        <v>753.2602381048059</v>
+        <v>14880.96537166129</v>
       </c>
       <c r="C30">
-        <v>245.8622440770452</v>
+        <v>10125.30927072975</v>
       </c>
       <c r="D30">
-        <v>2.222030689528929</v>
+        <v>3.788413298053056</v>
       </c>
       <c r="E30">
-        <v>0.3540263912840104</v>
+        <v>0.1477453620990366</v>
       </c>
       <c r="F30">
-        <v>0.9277978809280198</v>
+        <v>0.948977455628607</v>
       </c>
       <c r="G30">
-        <v>766.9997478326106</v>
+        <v>10003.37762415874</v>
       </c>
       <c r="H30">
-        <v>299.4451256889857</v>
+        <v>5408.401224778122</v>
       </c>
       <c r="I30">
-        <v>1.943385792444445</v>
+        <v>1.745034339622642</v>
       </c>
       <c r="J30">
-        <v>2.222222222222222</v>
+        <v>3.788679245283019</v>
       </c>
     </row>
     <row r="31" spans="2:10">
       <c r="B31">
-        <v>1002.437263722558</v>
+        <v>12762.65468943744</v>
       </c>
       <c r="C31">
-        <v>362.6643882383546</v>
+        <v>15881.95802859168</v>
       </c>
       <c r="D31">
-        <v>1.667951474515371</v>
+        <v>2.845067862871723</v>
       </c>
       <c r="E31">
-        <v>0.6855454382171126</v>
+        <v>0.7586219584594198</v>
       </c>
       <c r="F31">
-        <v>0.6716917486847981</v>
+        <v>0.6475260009362416</v>
       </c>
       <c r="G31">
-        <v>764.7245700418147</v>
+        <v>9992.499426091103</v>
       </c>
       <c r="H31">
-        <v>305.2662996273137</v>
+        <v>5470.201122082254</v>
       </c>
       <c r="I31">
-        <v>2.360052459111111</v>
+        <v>2.455411698113207</v>
       </c>
       <c r="J31">
-        <v>1.666666666666667</v>
+        <v>2.841509433962264</v>
       </c>
     </row>
     <row r="32" spans="2:10">
       <c r="B32">
-        <v>983.1294180795277</v>
+        <v>12696.61459466499</v>
       </c>
       <c r="C32">
-        <v>336.090635095383</v>
+        <v>15796.73605385806</v>
       </c>
       <c r="D32">
-        <v>0.009062790526061595</v>
+        <v>0.003973967932738426</v>
       </c>
       <c r="E32">
-        <v>0.6952150867049985</v>
+        <v>0.7820244728704649</v>
       </c>
       <c r="F32">
-        <v>0.6684801807772935</v>
+        <v>0.6508885192772353</v>
       </c>
       <c r="G32">
-        <v>764.7245700418147</v>
+        <v>9992.499426091103</v>
       </c>
       <c r="H32">
-        <v>305.2662996273137</v>
+        <v>5470.201122082254</v>
       </c>
       <c r="I32">
-        <v>2.360052459111111</v>
+        <v>2.455411698113207</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -1308,28 +1308,28 @@
     </row>
     <row r="33" spans="2:10">
       <c r="B33">
-        <v>941.4786110039147</v>
+        <v>12715.87322675783</v>
       </c>
       <c r="C33">
-        <v>350.3454013746762</v>
+        <v>15841.39136019371</v>
       </c>
       <c r="D33">
-        <v>0.004815970962744271</v>
+        <v>-0.003486963202909337</v>
       </c>
       <c r="E33">
-        <v>0.7130817775260572</v>
+        <v>0.7586716241423053</v>
       </c>
       <c r="F33">
-        <v>0.7138901905633097</v>
+        <v>0.6090416551526205</v>
       </c>
       <c r="G33">
-        <v>746.9788323381129</v>
+        <v>9798.307917596565</v>
       </c>
       <c r="H33">
-        <v>322.8756378701726</v>
+        <v>5629.231490341326</v>
       </c>
       <c r="I33">
-        <v>2.360052459111111</v>
+        <v>2.455411698113207</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -1337,28 +1337,28 @@
     </row>
     <row r="34" spans="2:10">
       <c r="B34">
-        <v>902.6294134379204</v>
+        <v>12190.88780244494</v>
       </c>
       <c r="C34">
-        <v>431.1469973718366</v>
+        <v>16880.87305923956</v>
       </c>
       <c r="D34">
-        <v>-0.004984324385606967</v>
+        <v>0.00402394733252199</v>
       </c>
       <c r="E34">
-        <v>0.6882144930196926</v>
+        <v>0.7841737131176371</v>
       </c>
       <c r="F34">
-        <v>0.7288799526968992</v>
+        <v>0.6488729320557185</v>
       </c>
       <c r="G34">
-        <v>711.4873569307092</v>
+        <v>9409.924900607492</v>
       </c>
       <c r="H34">
-        <v>358.0943143558906</v>
+        <v>5947.292226859471</v>
       </c>
       <c r="I34">
-        <v>2.360052459111111</v>
+        <v>2.455411698113207</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -1366,28 +1366,28 @@
     </row>
     <row r="35" spans="2:10">
       <c r="B35">
-        <v>832.4052611326291</v>
+        <v>11472.89633567847</v>
       </c>
       <c r="C35">
-        <v>455.8775598863745</v>
+        <v>17723.96184077823</v>
       </c>
       <c r="D35">
-        <v>0.01214847121480913</v>
+        <v>-0.002952583153350426</v>
       </c>
       <c r="E35">
-        <v>0.6915764022400659</v>
+        <v>0.797840451872131</v>
       </c>
       <c r="F35">
-        <v>0.7346273663359317</v>
+        <v>0.6371353937213683</v>
       </c>
       <c r="G35">
-        <v>658.2501438196037</v>
+        <v>8827.35037512388</v>
       </c>
       <c r="H35">
-        <v>410.9223290844674</v>
+        <v>6424.383331636688</v>
       </c>
       <c r="I35">
-        <v>2.360052459111111</v>
+        <v>2.455411698113207</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -1395,28 +1395,28 @@
     </row>
     <row r="36" spans="2:10">
       <c r="B36">
-        <v>758.5183859166021</v>
+        <v>10336.91937600792</v>
       </c>
       <c r="C36">
-        <v>573.5494854596468</v>
+        <v>17046.07281165687</v>
       </c>
       <c r="D36">
-        <v>-0.005350225118749594</v>
+        <v>-0.003000063822024862</v>
       </c>
       <c r="E36">
-        <v>0.7114982323492544</v>
+        <v>0.758187578495634</v>
       </c>
       <c r="F36">
-        <v>0.7464315261546248</v>
+        <v>0.6092041881750127</v>
       </c>
       <c r="G36">
-        <v>587.2671930047964</v>
+        <v>8050.584341145733</v>
       </c>
       <c r="H36">
-        <v>481.3596820559032</v>
+        <v>7060.504804672978</v>
       </c>
       <c r="I36">
-        <v>2.360052459111111</v>
+        <v>2.455411698113207</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -1424,28 +1424,28 @@
     </row>
     <row r="37" spans="2:10">
       <c r="B37">
-        <v>643.8367660626776</v>
+        <v>9144.087383048998</v>
       </c>
       <c r="C37">
-        <v>608.2651042044048</v>
+        <v>15622.22421110114</v>
       </c>
       <c r="D37">
-        <v>0.00501136817904642</v>
+        <v>-0.0006131614043915207</v>
       </c>
       <c r="E37">
-        <v>0.6805291272430229</v>
+        <v>0.7746747433768951</v>
       </c>
       <c r="F37">
-        <v>0.7189042207169131</v>
+        <v>0.6325770859085649</v>
       </c>
       <c r="G37">
-        <v>498.5385044862872</v>
+        <v>7079.626798673048</v>
       </c>
       <c r="H37">
-        <v>569.4063732701981</v>
+        <v>7855.65664596834</v>
       </c>
       <c r="I37">
-        <v>2.360052459111111</v>
+        <v>2.455411698113207</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -1453,28 +1453,28 @@
     </row>
     <row r="38" spans="2:10">
       <c r="B38">
-        <v>466.4275391218633</v>
+        <v>7989.26166698721</v>
       </c>
       <c r="C38">
-        <v>450.3935378058005</v>
+        <v>14914.53836266597</v>
       </c>
       <c r="D38">
-        <v>-0.007337126491619628</v>
+        <v>-0.002669094386250937</v>
       </c>
       <c r="E38">
-        <v>0.7239351709950763</v>
+        <v>0.7897704672418469</v>
       </c>
       <c r="F38">
-        <v>0.7320097876965588</v>
+        <v>0.6370059693832566</v>
       </c>
       <c r="G38">
-        <v>409.809815967778</v>
+        <v>6108.669256200364</v>
       </c>
       <c r="H38">
-        <v>657.4530644844929</v>
+        <v>8650.808487263703</v>
       </c>
       <c r="I38">
-        <v>2.360052459111111</v>
+        <v>2.455411698113207</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -1482,28 +1482,28 @@
     </row>
     <row r="39" spans="2:10">
       <c r="B39">
-        <v>385.0943111818279</v>
+        <v>6517.412070693754</v>
       </c>
       <c r="C39">
-        <v>407.0043504584504</v>
+        <v>13825.61756074813</v>
       </c>
       <c r="D39">
-        <v>0.0009875748275234991</v>
+        <v>0.005174812094904743</v>
       </c>
       <c r="E39">
-        <v>0.6969338735594572</v>
+        <v>0.7343574230082647</v>
       </c>
       <c r="F39">
-        <v>0.6833772915578886</v>
+        <v>0.6455498605933867</v>
       </c>
       <c r="G39">
-        <v>338.8268651529707</v>
+        <v>5331.903222222216</v>
       </c>
       <c r="H39">
-        <v>727.8904174559287</v>
+        <v>9286.929960299993</v>
       </c>
       <c r="I39">
-        <v>2.360052459111111</v>
+        <v>2.455411698113207</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -1511,28 +1511,28 @@
     </row>
     <row r="40" spans="2:10">
       <c r="B40">
-        <v>300.4122231550057</v>
+        <v>6244.287814861763</v>
       </c>
       <c r="C40">
-        <v>337.8972156024632</v>
+        <v>13326.52703731021</v>
       </c>
       <c r="D40">
-        <v>0.004777938950879736</v>
+        <v>0.006216478254784864</v>
       </c>
       <c r="E40">
-        <v>0.6811341894871628</v>
+        <v>0.7739333075046151</v>
       </c>
       <c r="F40">
-        <v>0.6719891297343834</v>
+        <v>0.6513214065506419</v>
       </c>
       <c r="G40">
-        <v>285.5896520418652</v>
+        <v>4749.328696738605</v>
       </c>
       <c r="H40">
-        <v>780.7184321845057</v>
+        <v>9764.02106507721</v>
       </c>
       <c r="I40">
-        <v>2.360052459111111</v>
+        <v>2.455411698113207</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -1540,28 +1540,28 @@
     </row>
     <row r="41" spans="2:10">
       <c r="B41">
-        <v>271.7806348040019</v>
+        <v>5599.511551674352</v>
       </c>
       <c r="C41">
-        <v>240.4538046889297</v>
+        <v>12920.03972450202</v>
       </c>
       <c r="D41">
-        <v>0.006966611257539632</v>
+        <v>-0.003888935508521725</v>
       </c>
       <c r="E41">
-        <v>0.723271433062473</v>
+        <v>0.7930821758940454</v>
       </c>
       <c r="F41">
-        <v>0.6654989150676294</v>
+        <v>0.6437149750967024</v>
       </c>
       <c r="G41">
-        <v>250.0981766344615</v>
+        <v>4360.945679749531</v>
       </c>
       <c r="H41">
-        <v>815.9371086702236</v>
+        <v>10082.08180159535</v>
       </c>
       <c r="I41">
-        <v>2.360052459111111</v>
+        <v>2.455411698113207</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -1569,28 +1569,28 @@
     </row>
     <row r="42" spans="2:10">
       <c r="B42">
-        <v>256.2033709410748</v>
+        <v>5738.692113503147</v>
       </c>
       <c r="C42">
-        <v>232.2740167845084</v>
+        <v>12956.35551626321</v>
       </c>
       <c r="D42">
-        <v>0.008056716077754494</v>
+        <v>0.001642630522602024</v>
       </c>
       <c r="E42">
-        <v>0.7015469910404236</v>
+        <v>0.7928189871571371</v>
       </c>
       <c r="F42">
-        <v>0.7057151668598436</v>
+        <v>0.6460546200966145</v>
       </c>
       <c r="G42">
-        <v>232.3524389307597</v>
+        <v>4166.754171254995</v>
       </c>
       <c r="H42">
-        <v>833.5464469130825</v>
+        <v>10241.11216985443</v>
       </c>
       <c r="I42">
-        <v>2.360052459111111</v>
+        <v>2.455411698113207</v>
       </c>
       <c r="J42">
         <v>0</v>
